--- a/data_year/zb/农业/农村基层组织情况.xlsx
+++ b/data_year/zb/农业/农村基层组织情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,361 +458,171 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24043</v>
+        <v>14571</v>
       </c>
       <c r="C2" t="n">
-        <v>43735</v>
+        <v>33981</v>
       </c>
       <c r="D2" t="n">
-        <v>734715</v>
+        <v>594658</v>
       </c>
       <c r="E2" t="n">
-        <v>19692</v>
+        <v>19410</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20606</v>
+        <v>13587</v>
       </c>
       <c r="C3" t="n">
-        <v>40161</v>
+        <v>33270</v>
       </c>
       <c r="D3" t="n">
-        <v>709257</v>
+        <v>589874</v>
       </c>
       <c r="E3" t="n">
-        <v>19555</v>
+        <v>19683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19243</v>
+        <v>13281</v>
       </c>
       <c r="C4" t="n">
-        <v>39054</v>
+        <v>33162</v>
       </c>
       <c r="D4" t="n">
-        <v>694515</v>
+        <v>588407</v>
       </c>
       <c r="E4" t="n">
-        <v>19811</v>
+        <v>19881</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18440</v>
+        <v>12812</v>
       </c>
       <c r="C5" t="n">
-        <v>38028</v>
+        <v>32929</v>
       </c>
       <c r="D5" t="n">
-        <v>678589</v>
+        <v>589067</v>
       </c>
       <c r="E5" t="n">
-        <v>19588</v>
+        <v>20117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17781</v>
+        <v>12282</v>
       </c>
       <c r="C6" t="n">
-        <v>36952</v>
+        <v>32683</v>
       </c>
       <c r="D6" t="n">
-        <v>652718</v>
+        <v>585451</v>
       </c>
       <c r="E6" t="n">
-        <v>19171</v>
+        <v>20401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16621</v>
+        <v>11315</v>
       </c>
       <c r="C7" t="n">
-        <v>35509</v>
+        <v>31830</v>
       </c>
       <c r="D7" t="n">
-        <v>640139</v>
+        <v>580575</v>
       </c>
       <c r="E7" t="n">
-        <v>18888</v>
+        <v>20515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15629</v>
+        <v>10872</v>
       </c>
       <c r="C8" t="n">
-        <v>34461</v>
+        <v>31755</v>
       </c>
       <c r="D8" t="n">
-        <v>631183.5</v>
+        <v>559186</v>
       </c>
       <c r="E8" t="n">
-        <v>18832</v>
+        <v>20883</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15468</v>
+        <v>10529</v>
       </c>
       <c r="C9" t="n">
-        <v>34052</v>
+        <v>31645</v>
       </c>
       <c r="D9" t="n">
-        <v>621046</v>
+        <v>554218</v>
       </c>
       <c r="E9" t="n">
-        <v>18584</v>
+        <v>21116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15067</v>
+        <v>10253</v>
       </c>
       <c r="C10" t="n">
-        <v>34301</v>
+        <v>31550</v>
       </c>
       <c r="D10" t="n">
-        <v>603589</v>
+        <v>542019</v>
       </c>
       <c r="E10" t="n">
-        <v>19234</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14848</v>
-      </c>
-      <c r="C11" t="n">
-        <v>34170</v>
-      </c>
-      <c r="D11" t="n">
-        <v>599078</v>
-      </c>
-      <c r="E11" t="n">
-        <v>19322</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14571</v>
-      </c>
-      <c r="C12" t="n">
-        <v>33981</v>
-      </c>
-      <c r="D12" t="n">
-        <v>594658</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19410</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13587</v>
-      </c>
-      <c r="C13" t="n">
-        <v>33270</v>
-      </c>
-      <c r="D13" t="n">
-        <v>589874</v>
-      </c>
-      <c r="E13" t="n">
-        <v>19683</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13281</v>
-      </c>
-      <c r="C14" t="n">
-        <v>33162</v>
-      </c>
-      <c r="D14" t="n">
-        <v>588407</v>
-      </c>
-      <c r="E14" t="n">
-        <v>19881</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>12812</v>
-      </c>
-      <c r="C15" t="n">
-        <v>32929</v>
-      </c>
-      <c r="D15" t="n">
-        <v>589067</v>
-      </c>
-      <c r="E15" t="n">
-        <v>20117</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>12282</v>
-      </c>
-      <c r="C16" t="n">
-        <v>32683</v>
-      </c>
-      <c r="D16" t="n">
-        <v>585451</v>
-      </c>
-      <c r="E16" t="n">
-        <v>20401</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11315</v>
-      </c>
-      <c r="C17" t="n">
-        <v>31830</v>
-      </c>
-      <c r="D17" t="n">
-        <v>580575</v>
-      </c>
-      <c r="E17" t="n">
-        <v>20515</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10872</v>
-      </c>
-      <c r="C18" t="n">
-        <v>31755</v>
-      </c>
-      <c r="D18" t="n">
-        <v>559186</v>
-      </c>
-      <c r="E18" t="n">
-        <v>20883</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10529</v>
-      </c>
-      <c r="C19" t="n">
-        <v>31645</v>
-      </c>
-      <c r="D19" t="n">
-        <v>554218</v>
-      </c>
-      <c r="E19" t="n">
-        <v>21116</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10253</v>
-      </c>
-      <c r="C20" t="n">
-        <v>31550</v>
-      </c>
-      <c r="D20" t="n">
-        <v>542019</v>
-      </c>
-      <c r="E20" t="n">
         <v>21297</v>
       </c>
     </row>
